--- a/CO2g contact.xlsx
+++ b/CO2g contact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.yazdi\Documents\Cospirit\cal carbone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB717F8-2B08-4ED9-A637-7C0029D25B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31E4E20-8730-4604-AF28-F12E5B98ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{0666AFDB-AA45-424A-A4DC-53AAAF1EB5DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0666AFDB-AA45-424A-A4DC-53AAAF1EB5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>OOH</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>SEARCH</t>
-  </si>
-  <si>
-    <t>SEA</t>
   </si>
   <si>
     <t>TELEVISION</t>
@@ -457,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D41925-2B59-4192-9D77-BDC98AAAB132}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,13 +468,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,6 +484,9 @@
       <c r="B2">
         <v>1.825</v>
       </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -539,6 +539,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -547,13 +550,19 @@
       <c r="B8">
         <v>0.3</v>
       </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.1240000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -572,22 +581,15 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.9</v>
+        <v>4.5830000000000002</v>
       </c>
       <c r="C11">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4.5830000000000002</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -780,10 +782,6 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CO2g contact.xlsx
+++ b/CO2g contact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.yazdi\Documents\Cospirit\cal carbone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31E4E20-8730-4604-AF28-F12E5B98ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E0B61-EB94-4AD2-BBB0-387DD5AF9927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0666AFDB-AA45-424A-A4DC-53AAAF1EB5DC}"/>
+    <workbookView xWindow="2304" yWindow="2172" windowWidth="17280" windowHeight="9960" xr2:uid="{0666AFDB-AA45-424A-A4DC-53AAAF1EB5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>PRESSE</t>
   </si>
   <si>
-    <t>AUTRES</t>
-  </si>
-  <si>
     <t>CO2g/Contact</t>
   </si>
   <si>
@@ -75,13 +72,16 @@
   </si>
   <si>
     <t>Alpha</t>
+  </si>
+  <si>
+    <t>COURRIER/EMAIL/SMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,20 +89,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,30 +453,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D41925-2B59-4192-9D77-BDC98AAAB132}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -485,87 +484,90 @@
         <v>1.825</v>
       </c>
       <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>0.18</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.46700000000000003</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.69299999999999995</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2.9670000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>6.3330000000000002</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0.3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1.1240000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -573,215 +575,22 @@
         <v>11.9</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4.5830000000000002</v>
       </c>
-      <c r="C11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="D11">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
